--- a/public/express_import.xlsx
+++ b/public/express_import.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>订单日期</t>
   </si>
@@ -49,50 +49,76 @@
     <t>联系电话</t>
   </si>
   <si>
+    <t>广东省</t>
+  </si>
+  <si>
+    <t>广州市</t>
+  </si>
+  <si>
+    <t>圆通快递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申通快递</t>
+  </si>
+  <si>
+    <t>2015-01-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-02-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>东莞庄路富力院士庭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>710093131111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>227268321111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>华盛顿传</t>
-  </si>
-  <si>
-    <t>幸岚</t>
-  </si>
-  <si>
-    <t>广东省</t>
-  </si>
-  <si>
-    <t>广州市</t>
-  </si>
-  <si>
-    <t>东莞庄路富力院士庭c1a栋1102房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>野性的力量</t>
-  </si>
-  <si>
-    <t>圆通快递</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>710093138324</t>
-  </si>
-  <si>
-    <t>物流公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物流单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>227268328129</t>
-  </si>
-  <si>
-    <t>申通快递</t>
-  </si>
-  <si>
-    <t>2015-01-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015-02-05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +472,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -499,15 +525,15 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>34</v>
@@ -515,40 +541,40 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J2">
         <v>510630</v>
       </c>
       <c r="K2">
-        <v>13416132991</v>
+        <v>13416131111</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>38</v>
@@ -556,35 +582,35 @@
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J3">
         <v>510630</v>
       </c>
       <c r="K3">
-        <v>13416132991</v>
+        <v>13416131111</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
